--- a/Data_clean/MCAS/Estados_US/Edos_USA_2014/NORTH_DAKOTA_2014.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2014/NORTH_DAKOTA_2014.xlsx
@@ -434,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -447,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -496,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Galeana</t>
@@ -509,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -522,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -535,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -615,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -628,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -713,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -762,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>León</t>
@@ -775,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -824,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Cuetzala Del Progreso</t>
@@ -837,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -850,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -899,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>El Grullo</t>
@@ -912,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -925,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -938,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -987,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Peribán</t>
@@ -1036,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -1121,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -1206,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Cuautlancingo</t>
@@ -1219,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Pantepec</t>
@@ -1232,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Tianguismanalco</t>
@@ -1245,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -1366,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Navojoa</t>
@@ -1379,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Santa Ana</t>
@@ -1428,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -1513,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Manlio Fabio Altamirano</t>
@@ -1526,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -1539,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -1588,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Sain Alto</t>
